--- a/data/Sample UPC Data.xlsx
+++ b/data/Sample UPC Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidus\myflaskproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC673FE-D416-4334-A7E7-88EA3E507F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB047E1-7D50-4A9F-B3DB-C8F46CAFCD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   </sheetPr>
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
